--- a/ex2.xlsx
+++ b/ex2.xlsx
@@ -18,10 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -60,12 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,170 +451,135 @@
           <t>stock</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>牙膏</t>
+          <t>洗髮水</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.57</v>
+        <v>959.33</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45767.60713477646</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>洗衣粉</t>
+          <t>衛生紙</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>647.7</v>
+        <v>327.25</v>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45767.60713670975</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>卫生纸</t>
+          <t>洗潔精</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.7</v>
+        <v>575.6</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45767.60713834326</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>洗发水</t>
+          <t>保鮮膜</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>740.17</v>
+        <v>574.55</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45767.60714112222</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>洗衣液</t>
+          <t>洗衣粉</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623.62</v>
+        <v>578.47</v>
       </c>
       <c r="C6" t="n">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45767.60714298633</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>垃圾袋</t>
+          <t>沐浴露</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>442.02</v>
+        <v>590.3200000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45767.60714475703</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>洗洁精</t>
+          <t>洗衣液</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126.74</v>
+        <v>182.52</v>
       </c>
       <c r="C8" t="n">
-        <v>84</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>45767.60714651753</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>沐浴露</t>
+          <t>廚房紙巾</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>566.08</v>
+        <v>783.41</v>
       </c>
       <c r="C9" t="n">
-        <v>99</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>45767.60714817683</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>保鲜膜</t>
+          <t>垃圾袋</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.35</v>
+        <v>691.72</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>45767.60714976993</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>厨房纸巾</t>
+          <t>牙膏</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>311.98</v>
+        <v>644.26</v>
       </c>
       <c r="C11" t="n">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>45767.60715144581</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,16 +622,11 @@
           <t>address</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>刘文</t>
+          <t>潘中山</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -680,22 +636,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1393467093</t>
+          <t>1300292802</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>台湾省关岭县丰都佛山街K座 191083</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45767.60715359222</v>
+          <t>922 北斗市新店路74號之1</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>魏冬梅</t>
+          <t>潘筱涵</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -705,22 +658,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1394937238</t>
+          <t>1302897227</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>山西省长沙市浔阳汪路d座 141275</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45767.60715516744</v>
+          <t>13388 阿里山民族路49號之5</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>林桂香</t>
+          <t>張慧君</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -730,22 +680,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1338903100</t>
+          <t>1351149560</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>贵州省玉英市东丽拉萨路H座 376744</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45767.60715769848</v>
+          <t>16790 鳳山育英巷661號之7</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>牛建华</t>
+          <t>梁柏翰</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -755,22 +702,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1396637856</t>
+          <t>1308318853</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天津市武汉县西峰刘街c座 195907</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45767.60715935543</v>
+          <t>522 蘆洲文山街60號7樓</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>靳宁</t>
+          <t>楊惠如</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -780,16 +724,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1336638592</t>
+          <t>1332266825</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>北京市台北县璧山淮安街d座 446035</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45767.6071609656</v>
+          <t>51460 苗栗士林路4段7號3樓</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -803,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,27 +755,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>customer_name</t>
+          <t>customer_email</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>customer_phone</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>product_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>total_price</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>order_date</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -846,126 +787,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>林桂香</t>
+          <t>customer2@example.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>洗发水</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>1302897227</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>廚房紙巾</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>2960.68</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45767.60716421266</v>
+      <c r="E2" t="n">
+        <v>3133.64</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>cancelled</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>牛建华</t>
+          <t>customer3@example.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>1351149560</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>洗衣粉</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
       <c r="D3" t="n">
-        <v>647.7</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45767.60716591895</v>
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1735.41</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>completed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>林桂香</t>
+          <t>customer3@example.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>洗衣粉</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
+          <t>1351149560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>洗髮水</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>3238.5</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45767.60716739378</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>959.33</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>牛建华</t>
+          <t>customer1@example.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>沐浴露</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
+          <t>1300292802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>垃圾袋</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>1132.16</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45767.60716911676</v>
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2766.88</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>林桂香</t>
+          <t>customer2@example.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>洗衣粉</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
+          <t>1302897227</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>沐浴露</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>1943.1</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45767.6071707577</v>
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1180.64</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -976,74 +927,80 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>刘文</t>
+          <t>customer2@example.com</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>洗洁精</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
+          <t>1302897227</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>洗潔精</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>253.48</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45767.60717237071</v>
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2878</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>魏冬梅</t>
+          <t>customer3@example.com</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>保鲜膜</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
+          <t>1351149560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>洗髮水</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>1971.75</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>45767.60717401527</v>
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2877.99</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>林桂香</t>
+          <t>customer4@example.com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>厨房纸巾</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>1308318853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>垃圾袋</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
-        <v>1559.9</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>45767.60717562556</v>
+      <c r="E9" t="n">
+        <v>3458.6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1054,22 +1011,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>靳宁</t>
+          <t>customer5@example.com</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>垃圾袋</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
+          <t>1332266825</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>洗潔精</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>2210.1</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>45767.60717733354</v>
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>575.6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1080,256 +1039,276 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>靳宁</t>
+          <t>customer2@example.com</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>保鲜膜</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>1302897227</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>垃圾袋</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>4</v>
       </c>
-      <c r="D11" t="n">
-        <v>1577.4</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>45767.60717881178</v>
+      <c r="E11" t="n">
+        <v>2766.88</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>cancelled</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>靳宁</t>
+          <t>customer4@example.com</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>牙膏</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
+          <t>1308318853</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>保鮮膜</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>387.14</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>45767.60718076779</v>
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1723.65</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>魏冬梅</t>
+          <t>customer3@example.com</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>保鲜膜</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
+          <t>1351149560</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>洗髮水</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>1183.05</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>45767.60718278119</v>
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>959.33</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>靳宁</t>
+          <t>customer1@example.com</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>洗衣液</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
+          <t>1300292802</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>廚房紙巾</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>1247.24</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>45767.60718448037</v>
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2350.23</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>林桂香</t>
+          <t>customer1@example.com</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>洗洁精</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
+          <t>1300292802</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>洗潔精</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>253.48</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>45767.60718657274</v>
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1726.8</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>cancelled</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>魏冬梅</t>
+          <t>customer4@example.com</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>垃圾袋</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>3</v>
+          <t>1308318853</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>洗潔精</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>1326.06</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>45767.60718878131</v>
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>575.6</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>completed</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>靳宁</t>
+          <t>customer3@example.com</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>厨房纸巾</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
+          <t>1351149560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>洗衣液</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>1559.9</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>45767.60719145228</v>
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>547.5599999999999</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>cancelled</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>牛建华</t>
+          <t>customer5@example.com</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>沐浴露</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+          <t>1332266825</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>保鮮膜</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="D18" t="n">
-        <v>1132.16</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>45767.60719450261</v>
+      <c r="E18" t="n">
+        <v>1149.1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>completed</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>魏冬梅</t>
+          <t>customer5@example.com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>洗衣液</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
+          <t>1332266825</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>保鮮膜</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>1870.86</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>45767.60719643897</v>
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2872.75</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>pending</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>靳宁</t>
+          <t>customer5@example.com</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>洗洁精</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+          <t>1332266825</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>沐浴露</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>126.74</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>45767.60719810791</v>
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2361.28</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1340,544 +1319,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>魏冬梅</t>
+          <t>customer5@example.com</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1332266825</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>沐浴露</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
       <c r="D21" t="n">
-        <v>2264.32</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>45767.60720024491</v>
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2951.6</v>
       </c>
       <c r="F21" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>林桂香</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>洗发水</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2960.68</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>45767.60863119338</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>牛建华</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>洗衣粉</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>647.7</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>45767.60863402566</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>林桂香</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>洗衣粉</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3238.5</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>45767.60863574287</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>牛建华</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>沐浴露</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1132.16</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>45767.60863737302</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>cancelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>林桂香</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>洗衣粉</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1943.1</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>45767.60863978126</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>刘文</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>洗洁精</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>253.48</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>45767.60864155257</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>魏冬梅</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>保鲜膜</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1971.75</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>45767.60864347433</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>cancelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>林桂香</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>厨房纸巾</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1559.9</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>45767.60864506166</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>靳宁</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>垃圾袋</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>5</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2210.1</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>45767.60864674169</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>靳宁</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>保鲜膜</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1577.4</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>45767.60864831544</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>靳宁</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>牙膏</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>387.14</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>45767.60864999999</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>cancelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>魏冬梅</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>保鲜膜</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1183.05</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>45767.60865177478</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>cancelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>靳宁</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>洗衣液</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1247.24</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>45767.6086534848</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>林桂香</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>洗洁精</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>253.48</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>45767.60865538409</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>魏冬梅</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>垃圾袋</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1326.06</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>45767.60865714293</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>靳宁</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>厨房纸巾</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1559.9</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>45767.60865909978</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>牛建华</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>沐浴露</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1132.16</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>45767.60866076295</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>魏冬梅</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>洗衣液</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1870.86</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>45767.60866235811</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>cancelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>靳宁</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>洗洁精</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>126.74</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>45767.60866398331</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>魏冬梅</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>沐浴露</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2264.32</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>45767.60866697643</v>
-      </c>
-      <c r="F41" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
